--- a/excel/js_xlsx/temp/upload/11.xlsx
+++ b/excel/js_xlsx/temp/upload/11.xlsx
@@ -16,24 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>通道类型</t>
-  </si>
-  <si>
-    <t>通道成本</t>
-  </si>
-  <si>
-    <t>网关成功数</t>
-  </si>
-  <si>
-    <t>结算数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +27,30 @@
   </si>
   <si>
     <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +398,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -401,33 +408,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -441,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
         <v>1</v>
